--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4509.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4509.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +438,121 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_NUMBER</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INNING_NUMBER</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_DATE</t>
+          <t>BATTING_HAND</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_INNING</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>OPPONENT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VENUE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DISMISSAL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RUNS_SCORED</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BALLS_FACED</t>
+          <t>BOWL_STYLE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>4509</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Henry Michael Nicholls</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_NUMBER</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INNING_NUMBER</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_DATE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_INNING</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OPPONENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VENUE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DISMISSAL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RUNS_SCORED</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BALLS_FACED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -543,7 +608,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -551,7 +615,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -707,7 +771,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -759,7 +823,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -811,7 +875,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3883</t>
+          <t>3883</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -863,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -915,7 +979,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +1031,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1383,7 +1447,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1423,7 +1487,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1483,7 +1546,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1535,7 +1598,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1587,7 +1650,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1639,7 +1702,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1691,7 +1754,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1743,7 +1806,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1795,7 +1858,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1847,7 +1910,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1899,7 +1962,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1951,7 +2014,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2003,7 +2066,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2055,7 +2118,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2107,7 +2170,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2159,7 +2222,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2211,7 +2274,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2263,7 +2326,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2315,7 +2378,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2367,7 +2430,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2419,7 +2482,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2471,7 +2534,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2523,7 +2586,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2575,7 +2638,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2627,7 +2690,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2679,7 +2742,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2731,7 +2794,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2783,7 +2846,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2835,7 +2898,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2887,7 +2950,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2939,7 +3002,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2991,7 +3054,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3043,7 +3106,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4452</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3095,7 +3158,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4453</t>
+          <t>4453</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3147,7 +3210,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4455</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3199,7 +3262,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3251,7 +3314,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3303,7 +3366,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3355,7 +3418,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3407,7 +3470,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3459,7 +3522,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3511,7 +3574,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3563,7 +3626,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3615,7 +3678,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3646,6 +3709,597 @@
       <c r="J62" t="inlineStr">
         <is>
           <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Seddon Park</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>not out</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>44*</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5.35%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4452</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.12%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.73%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5.66%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.94%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.20%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.30%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.76%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.94%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14.24%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4509.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4509.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4509.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4509.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -608,6 +607,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/12/2015</t>
@@ -1487,6 +1487,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -3761,545 +3762,6 @@
       <c r="J63" t="inlineStr">
         <is>
           <t>52</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.67%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.35%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37.12%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4453</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.73%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4455</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.66%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>27.94%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.20%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.30%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.76%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.94%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.85%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>14.24%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
